--- a/Final Report/results/results_random_order.xlsx
+++ b/Final Report/results/results_random_order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2ID35\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\database-technology\Final Report\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -729,79 +729,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,79 +941,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,79 +1153,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,79 +1365,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,15 +1536,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139413968"/>
-        <c:axId val="139415088"/>
+        <c:axId val="277529632"/>
+        <c:axId val="276739376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139413968"/>
+        <c:axId val="277529632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
-          <c:min val="9"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1655,12 +1655,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139415088"/>
+        <c:crossAx val="276739376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139415088"/>
+        <c:axId val="276739376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1779,7 +1779,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139413968"/>
+        <c:crossAx val="277529632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2000,79 +2000,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,79 +2212,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,79 +2424,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,79 +2636,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,15 +2807,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198157984"/>
-        <c:axId val="198156864"/>
+        <c:axId val="277594272"/>
+        <c:axId val="277594832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198157984"/>
+        <c:axId val="277594272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
-          <c:min val="9"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2926,12 +2926,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198156864"/>
+        <c:crossAx val="277594832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198156864"/>
+        <c:axId val="277594832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000000"/>
@@ -3049,7 +3049,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198157984"/>
+        <c:crossAx val="277594272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4576,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,10 +4593,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -4608,10 +4608,10 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
         <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
@@ -4638,10 +4638,10 @@
         <v>2</v>
       </c>
       <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
         <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4655,11 +4655,11 @@
         <v>8447349363</v>
       </c>
       <c r="D2">
-        <f>10+B2</f>
-        <v>10</v>
+        <f>(B2+1)*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -4671,11 +4671,11 @@
         <v>2103919316</v>
       </c>
       <c r="J2">
-        <f>10+H2</f>
-        <v>10</v>
+        <f>(H2+1)*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -4687,11 +4687,11 @@
         <v>2741937305</v>
       </c>
       <c r="P2">
-        <f>10+N2</f>
-        <v>10</v>
+        <f>(N2+1)*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
         <v>6</v>
@@ -4703,11 +4703,11 @@
         <v>4983555</v>
       </c>
       <c r="V2">
-        <f>10+T2</f>
-        <v>10</v>
+        <f>(T2+1)*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -4721,11 +4721,11 @@
         <v>1003541528</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D26" si="0">10+B3</f>
-        <v>11</v>
+        <f>(B3+1)*0.5</f>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -4737,11 +4737,11 @@
         <v>1566580383</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J26" si="1">10+H3</f>
-        <v>11</v>
+        <f>(H3+1)*0.5</f>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>5</v>
@@ -4753,11 +4753,11 @@
         <v>1557855462</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P26" si="2">10+N3</f>
-        <v>11</v>
+        <f>(N3+1)*0.5</f>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s">
         <v>6</v>
@@ -4769,11 +4769,11 @@
         <v>5478874149</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V26" si="3">10+T3</f>
-        <v>11</v>
+        <f>(T3+1)*0.5</f>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -4787,11 +4787,11 @@
         <v>3184869721</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>(B4+1)*0.5</f>
+        <v>1.5</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -4803,11 +4803,11 @@
         <v>482101733</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>(H4+1)*0.5</f>
+        <v>1.5</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -4819,11 +4819,11 @@
         <v>486331521</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>(N4+1)*0.5</f>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
         <v>6</v>
@@ -4835,11 +4835,11 @@
         <v>2358573307</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>(T4+1)*0.5</f>
+        <v>1.5</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -4853,11 +4853,11 @@
         <v>4166761504</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>(B5+1)*0.5</f>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -4869,11 +4869,11 @@
         <v>2305707890</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>(H5+1)*0.5</f>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -4885,11 +4885,11 @@
         <v>2358259061</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>(N5+1)*0.5</f>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
         <v>6</v>
@@ -4901,11 +4901,11 @@
         <v>3226305772</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>(T5+1)*0.5</f>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -4919,11 +4919,11 @@
         <v>682099922</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>(B6+1)*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -4935,11 +4935,11 @@
         <v>5357916138</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>(H6+1)*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>5</v>
@@ -4951,11 +4951,11 @@
         <v>5447470715</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>(N6+1)*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s">
         <v>6</v>
@@ -4967,11 +4967,11 @@
         <v>5900062034</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>(T6+1)*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -4985,11 +4985,11 @@
         <v>906819976</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>(B7+1)*0.5</f>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -5001,11 +5001,11 @@
         <v>1342947962</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>(H7+1)*0.5</f>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
@@ -5017,11 +5017,11 @@
         <v>1407609817</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>(N7+1)*0.5</f>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s">
         <v>6</v>
@@ -5033,11 +5033,11 @@
         <v>899348717</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>(T7+1)*0.5</f>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -5051,11 +5051,11 @@
         <v>12239398134</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>(B8+1)*0.5</f>
+        <v>3.5</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -5067,11 +5067,11 @@
         <v>3661574338</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>(H8+1)*0.5</f>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -5083,11 +5083,11 @@
         <v>2393936357</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>(N8+1)*0.5</f>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s">
         <v>6</v>
@@ -5099,11 +5099,11 @@
         <v>2974934004</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f>(T8+1)*0.5</f>
+        <v>3.5</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -5117,11 +5117,11 @@
         <v>2861231414</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>(B9+1)*0.5</f>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -5133,11 +5133,11 @@
         <v>2490142618</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>(H9+1)*0.5</f>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
@@ -5149,11 +5149,11 @@
         <v>2471687252</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>(N9+1)*0.5</f>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
         <v>6</v>
@@ -5165,11 +5165,11 @@
         <v>1841039395</v>
       </c>
       <c r="V9">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f>(T9+1)*0.5</f>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -5183,11 +5183,11 @@
         <v>2817861892</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>(B10+1)*0.5</f>
+        <v>4.5</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -5199,11 +5199,11 @@
         <v>1846112304</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>(H10+1)*0.5</f>
+        <v>4.5</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
         <v>5</v>
@@ -5215,11 +5215,11 @@
         <v>1898486277</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>(N10+1)*0.5</f>
+        <v>4.5</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s">
         <v>6</v>
@@ -5231,11 +5231,11 @@
         <v>1668208513</v>
       </c>
       <c r="V10">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f>(T10+1)*0.5</f>
+        <v>4.5</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -5249,11 +5249,11 @@
         <v>3439289159</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>(B11+1)*0.5</f>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -5265,11 +5265,11 @@
         <v>17857469824</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>(H11+1)*0.5</f>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
         <v>5</v>
@@ -5281,11 +5281,11 @@
         <v>17870984199</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>(N11+1)*0.5</f>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s">
         <v>6</v>
@@ -5297,11 +5297,11 @@
         <v>18429075118</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f>(T11+1)*0.5</f>
+        <v>5</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -5315,11 +5315,11 @@
         <v>4603818945</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(B12+1)*0.5</f>
+        <v>5.5</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -5331,11 +5331,11 @@
         <v>5822361249</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>(H12+1)*0.5</f>
+        <v>5.5</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>5</v>
@@ -5347,11 +5347,11 @@
         <v>5784140103</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>(N12+1)*0.5</f>
+        <v>5.5</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s">
         <v>6</v>
@@ -5363,11 +5363,11 @@
         <v>4723163769</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>(T12+1)*0.5</f>
+        <v>5.5</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -5381,11 +5381,11 @@
         <v>6579073534</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>(B13+1)*0.5</f>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
@@ -5397,11 +5397,11 @@
         <v>6844556169</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>(H13+1)*0.5</f>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>5</v>
@@ -5413,11 +5413,11 @@
         <v>6666966624</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>(N13+1)*0.5</f>
+        <v>6</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
         <v>6</v>
@@ -5429,11 +5429,11 @@
         <v>4821030611</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f>(T13+1)*0.5</f>
+        <v>6</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -5447,11 +5447,11 @@
         <v>8823226104</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>(B14+1)*0.5</f>
+        <v>6.5</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -5463,11 +5463,11 @@
         <v>29732288967</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>(H14+1)*0.5</f>
+        <v>6.5</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
         <v>5</v>
@@ -5479,11 +5479,11 @@
         <v>29688378193</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>(N14+1)*0.5</f>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s">
         <v>6</v>
@@ -5495,11 +5495,11 @@
         <v>10769140232</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f>(T14+1)*0.5</f>
+        <v>6.5</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -5513,11 +5513,11 @@
         <v>10515153372</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>(B15+1)*0.5</f>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -5529,11 +5529,11 @@
         <v>19106791902</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>(H15+1)*0.5</f>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
         <v>5</v>
@@ -5545,11 +5545,11 @@
         <v>19072529466</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f>(N15+1)*0.5</f>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s">
         <v>6</v>
@@ -5561,11 +5561,11 @@
         <v>16578645483</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f>(T15+1)*0.5</f>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -5579,11 +5579,11 @@
         <v>13130143282</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>(B16+1)*0.5</f>
+        <v>7.5</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -5595,11 +5595,11 @@
         <v>98530912445</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>(H16+1)*0.5</f>
+        <v>7.5</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
         <v>5</v>
@@ -5611,11 +5611,11 @@
         <v>98249897440</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>(N16+1)*0.5</f>
+        <v>7.5</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s">
         <v>6</v>
@@ -5627,11 +5627,11 @@
         <v>61914219087</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>(T16+1)*0.5</f>
+        <v>7.5</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -5645,11 +5645,11 @@
         <v>16979094966</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B17+1)*0.5</f>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
@@ -5661,11 +5661,11 @@
         <v>84048387491</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>(H17+1)*0.5</f>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
         <v>5</v>
@@ -5677,11 +5677,11 @@
         <v>85199873215</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>(N17+1)*0.5</f>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s">
         <v>6</v>
@@ -5693,11 +5693,11 @@
         <v>46411508153</v>
       </c>
       <c r="V17">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f>(T17+1)*0.5</f>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -5711,11 +5711,11 @@
         <v>20363691194</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>(B18+1)*0.5</f>
+        <v>8.5</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -5727,11 +5727,11 @@
         <v>106707335266</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>(H18+1)*0.5</f>
+        <v>8.5</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
         <v>5</v>
@@ -5743,11 +5743,11 @@
         <v>94136558301</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>(N18+1)*0.5</f>
+        <v>8.5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s">
         <v>6</v>
@@ -5759,11 +5759,11 @@
         <v>59387994367</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f>(T18+1)*0.5</f>
+        <v>8.5</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -5777,11 +5777,11 @@
         <v>25119961844</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>(B19+1)*0.5</f>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -5793,11 +5793,11 @@
         <v>103323508503</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f>(H19+1)*0.5</f>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
         <v>5</v>
@@ -5809,11 +5809,11 @@
         <v>87702587470</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f>(N19+1)*0.5</f>
+        <v>9</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s">
         <v>6</v>
@@ -5825,11 +5825,11 @@
         <v>54213946047</v>
       </c>
       <c r="V19">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f>(T19+1)*0.5</f>
+        <v>9</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -5843,11 +5843,11 @@
         <v>30684563173</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>(B20+1)*0.5</f>
+        <v>9.5</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -5859,11 +5859,11 @@
         <v>42607117468</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>(H20+1)*0.5</f>
+        <v>9.5</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
         <v>5</v>
@@ -5875,11 +5875,11 @@
         <v>43056557274</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>(N20+1)*0.5</f>
+        <v>9.5</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s">
         <v>6</v>
@@ -5891,11 +5891,11 @@
         <v>56620963898</v>
       </c>
       <c r="V20">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f>(T20+1)*0.5</f>
+        <v>9.5</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -5909,11 +5909,11 @@
         <v>34349897590</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>(B21+1)*0.5</f>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
@@ -5925,11 +5925,11 @@
         <v>159997628215</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f>(H21+1)*0.5</f>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
         <v>5</v>
@@ -5941,11 +5941,11 @@
         <v>160183152388</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f>(N21+1)*0.5</f>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s">
         <v>6</v>
@@ -5957,11 +5957,11 @@
         <v>242782821539</v>
       </c>
       <c r="V21">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f>(T21+1)*0.5</f>
+        <v>10</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -5975,11 +5975,11 @@
         <v>33502896886</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>(B22+1)*0.5</f>
+        <v>10.5</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
@@ -5991,11 +5991,11 @@
         <v>29292444973</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>(H22+1)*0.5</f>
+        <v>10.5</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
         <v>5</v>
@@ -6007,11 +6007,11 @@
         <v>31397223711</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>(N22+1)*0.5</f>
+        <v>10.5</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s">
         <v>6</v>
@@ -6023,11 +6023,11 @@
         <v>38610290111</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f>(T22+1)*0.5</f>
+        <v>10.5</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -6041,11 +6041,11 @@
         <v>34677359069</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>(B23+1)*0.5</f>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -6057,11 +6057,11 @@
         <v>159019383613</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f>(H23+1)*0.5</f>
+        <v>11</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
         <v>5</v>
@@ -6073,11 +6073,11 @@
         <v>224643731463</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f>(N23+1)*0.5</f>
+        <v>11</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s">
         <v>6</v>
@@ -6089,11 +6089,11 @@
         <v>170638953481</v>
       </c>
       <c r="V23">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <f>(T23+1)*0.5</f>
+        <v>11</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -6107,11 +6107,11 @@
         <v>30220594712</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>(B24+1)*0.5</f>
+        <v>11.5</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
@@ -6123,11 +6123,11 @@
         <v>80181542219</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>(H24+1)*0.5</f>
+        <v>11.5</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s">
         <v>5</v>
@@ -6139,11 +6139,11 @@
         <v>110627588111</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f>(N24+1)*0.5</f>
+        <v>11.5</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s">
         <v>6</v>
@@ -6155,11 +6155,11 @@
         <v>36877341258</v>
       </c>
       <c r="V24">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f>(T24+1)*0.5</f>
+        <v>11.5</v>
       </c>
       <c r="W24">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -6173,11 +6173,11 @@
         <v>29793213381</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>(B25+1)*0.5</f>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
@@ -6189,11 +6189,11 @@
         <v>66105801771</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>(H25+1)*0.5</f>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
         <v>5</v>
@@ -6205,11 +6205,11 @@
         <v>95992403768</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f>(N25+1)*0.5</f>
+        <v>12</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s">
         <v>6</v>
@@ -6221,11 +6221,11 @@
         <v>157961635164</v>
       </c>
       <c r="V25">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f>(T25+1)*0.5</f>
+        <v>12</v>
       </c>
       <c r="W25">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -6239,11 +6239,11 @@
         <v>29341114712</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>(B26+1)*0.5</f>
+        <v>12.5</v>
       </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
@@ -6255,11 +6255,11 @@
         <v>184653094836</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>(H26+1)*0.5</f>
+        <v>12.5</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
         <v>5</v>
@@ -6271,11 +6271,11 @@
         <v>201985888227</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f>(N26+1)*0.5</f>
+        <v>12.5</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s">
         <v>6</v>
@@ -6287,11 +6287,11 @@
         <v>91652478118</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f>(T26+1)*0.5</f>
+        <v>12.5</v>
       </c>
       <c r="W26">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
